--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1573,24 +1573,24 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>CustNo ASC,FacmNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenAcDate ASC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>1:會計銷帳科目
 2:業務銷帳科目
 3:未收費用
 4:短繳期金
-5.另收欠款(未用)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo ASC,FacmNo ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenAcDate ASC</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+5.另收欠款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2700,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="37" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3593,7 +3593,7 @@
         <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3604,7 +3604,7 @@
         <v>185</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="32.4">
@@ -3637,7 +3637,7 @@
         <v>210</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
@@ -4428,8 +4428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="391">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -330,10 +330,6 @@
   </si>
   <si>
     <t>ReceivableFlag</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">銷帳科目記號    </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -609,10 +605,6 @@
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">業務科目代號  </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1547,6 +1539,30 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>useL2064Eq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND AcctFlag &gt;= ,AND AcctFlag &lt;= ,AND RvNo %</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo ASC,FacmNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenAcDate ASC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>1.暫收款－可抵繳 : ''primary key 不可有null, 放一個空白
 2.擔保放款、催收款項 : 撥款序號(3)
 3.會計銷帳科目：系統自編(AC+西元年後兩碼+流水號六碼)
@@ -1557,31 +1573,19 @@
 8.暫付、催收法務費：記錄號碼(8)
 9.短繳期金：撥款序號(3)
 10.'FacmNo'+額度編號(暫收款－借新還舊)
-11.聯貸手續費:SL+費用代號(2)+流水號(3)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>useL2064Eq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo = ,AND AcctFlag &gt;= ,AND AcctFlag &lt;= ,AND RvNo %</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FacmNo ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo ASC,FacmNo ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenAcDate ASC</t>
+11.聯貸手續費:SL-費用代號(2)-流水號(3)-攤提年月(YYYMM)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">業務科目代號  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">銷帳科目記號    </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2700,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2721,10 +2725,10 @@
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -2749,7 +2753,7 @@
       </c>
       <c r="B3" s="102"/>
       <c r="C3" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
@@ -2775,7 +2779,7 @@
       </c>
       <c r="B5" s="102"/>
       <c r="C5" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14"/>
@@ -2788,7 +2792,7 @@
       </c>
       <c r="B6" s="100"/>
       <c r="C6" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="14"/>
@@ -2801,7 +2805,7 @@
       </c>
       <c r="B7" s="101"/>
       <c r="C7" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="14"/>
@@ -2836,20 +2840,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>156</v>
+        <v>387</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>86</v>
+        <v>388</v>
       </c>
       <c r="E9" s="43">
         <v>3</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2858,7 +2862,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>20</v>
@@ -2878,7 +2882,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>21</v>
@@ -2891,7 +2895,7 @@
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="178.2">
@@ -2903,7 +2907,7 @@
         <v>56</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
@@ -2913,7 +2917,7 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="28" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2935,7 +2939,7 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="35" customFormat="1">
@@ -3034,14 +3038,14 @@
         <v>65</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E18" s="27">
         <v>1</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4">
@@ -3050,7 +3054,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>66</v>
@@ -3063,7 +3067,7 @@
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1" ht="81">
@@ -3075,17 +3079,17 @@
         <v>76</v>
       </c>
       <c r="C20" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="E20" s="24">
         <v>1</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="37" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3116,7 +3120,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>37</v>
@@ -3167,7 +3171,7 @@
         <v>70</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>48</v>
@@ -3197,7 +3201,7 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3206,20 +3210,20 @@
         <v>18</v>
       </c>
       <c r="B26" s="95" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C26" s="96" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D26" s="96" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="97">
         <v>3</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="98" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3241,7 +3245,7 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3263,7 +3267,7 @@
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3285,7 +3289,7 @@
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3307,7 +3311,7 @@
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="40" customFormat="1">
@@ -3316,7 +3320,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C31" s="42" t="s">
         <v>14</v>
@@ -3329,7 +3333,7 @@
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3351,7 +3355,7 @@
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3373,7 +3377,7 @@
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="40" customFormat="1">
@@ -3382,10 +3386,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>12</v>
@@ -3415,7 +3419,7 @@
       </c>
       <c r="F35" s="23"/>
       <c r="G35" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3435,7 +3439,7 @@
       <c r="E36" s="27"/>
       <c r="F36" s="30"/>
       <c r="G36" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3532,156 +3536,156 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="32.4">
       <c r="A9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="32.4">
       <c r="A13" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3693,10 +3697,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3711,12 +3715,12 @@
   <sheetData>
     <row r="1" spans="1:9" s="54" customFormat="1">
       <c r="A1" s="54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="54" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3742,7 +3746,7 @@
         <v>54</v>
       </c>
       <c r="I5" s="94" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1">
@@ -3750,10 +3754,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>12</v>
@@ -3763,10 +3767,10 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="34" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1">
@@ -3774,23 +3778,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="32">
         <v>1</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1">
@@ -3798,10 +3802,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>12</v>
@@ -3811,15 +3815,15 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="34" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="C10" s="53"/>
-      <c r="D10" s="52"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="C9" s="53"/>
+      <c r="D9" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3848,7 +3852,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3859,67 +3863,67 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J9" s="105" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K9" s="106"/>
       <c r="L9" s="106"/>
       <c r="M9" s="106"/>
       <c r="N9" s="107"/>
       <c r="O9" s="105" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P9" s="107"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="44"/>
       <c r="J10" s="55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K10" s="56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L10" s="56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M10" s="56" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N10" s="57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O10" s="55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P10" s="57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -3934,13 +3938,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K12" s="63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L12" s="64">
         <v>300000</v>
@@ -3949,24 +3953,24 @@
         <v>0</v>
       </c>
       <c r="N12" s="61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O12" s="65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P12" s="61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K13" s="63" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L13" s="64">
         <v>500000</v>
@@ -3975,18 +3979,18 @@
         <v>0</v>
       </c>
       <c r="N13" s="61" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O13" s="65" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P13" s="61" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="65"/>
       <c r="K14" s="66"/>
@@ -3998,7 +4002,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J15" s="65"/>
       <c r="K15" s="66"/>
@@ -4010,7 +4014,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J16" s="65"/>
       <c r="K16" s="63"/>
@@ -4018,15 +4022,15 @@
       <c r="M16" s="64"/>
       <c r="N16" s="61"/>
       <c r="O16" s="65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P16" s="72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J17" s="65"/>
       <c r="K17" s="63"/>
@@ -4034,15 +4038,15 @@
       <c r="M17" s="64"/>
       <c r="N17" s="61"/>
       <c r="O17" s="65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P17" s="72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="44" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J18" s="67"/>
       <c r="K18" s="68"/>
@@ -4050,10 +4054,10 @@
       <c r="M18" s="69"/>
       <c r="N18" s="70"/>
       <c r="O18" s="67" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P18" s="73" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4067,7 +4071,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -4075,177 +4079,177 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -4259,7 +4263,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -4267,67 +4271,67 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="44" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4335,23 +4339,23 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.8" thickBot="1">
       <c r="A83" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.8" thickBot="1">
       <c r="A84" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="B84" s="47" t="s">
+      <c r="C84" s="47" t="s">
         <v>150</v>
-      </c>
-      <c r="C84" s="47" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4457,581 +4461,581 @@
   <sheetData>
     <row r="1" spans="1:17" s="88" customFormat="1" ht="49.2" customHeight="1">
       <c r="A1" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="88" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="H1" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="78" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="88" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="78" t="s">
+      <c r="K1" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="E1" s="88" t="s">
-        <v>349</v>
-      </c>
-      <c r="F1" s="78" t="s">
-        <v>249</v>
-      </c>
-      <c r="G1" s="78" t="s">
-        <v>250</v>
-      </c>
-      <c r="H1" s="78" t="s">
-        <v>285</v>
-      </c>
-      <c r="I1" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="J1" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="L1" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O1" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="P1" s="10" t="s">
-        <v>263</v>
-      </c>
       <c r="Q1" s="88" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="77" customFormat="1" ht="58.2" customHeight="1">
       <c r="A2" s="77" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C2" s="78"/>
       <c r="F2" s="78" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="H2" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" s="78" t="s">
+        <v>262</v>
+      </c>
+      <c r="J2" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="G2" s="78" t="s">
-        <v>252</v>
-      </c>
-      <c r="H2" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="I2" s="78" t="s">
-        <v>264</v>
-      </c>
-      <c r="J2" s="78" t="s">
+      <c r="K2" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>255</v>
-      </c>
       <c r="M2" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O2" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="77" customFormat="1" ht="48.6">
       <c r="A3" s="91" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B3" s="84"/>
       <c r="C3" s="77" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D3" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>346</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>293</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>306</v>
+      </c>
+      <c r="K3" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="L3" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="N3" s="86" t="s">
+        <v>275</v>
+      </c>
+      <c r="O3" s="86" t="s">
+        <v>275</v>
+      </c>
+      <c r="P3" s="86" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="87" t="s">
-        <v>348</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>299</v>
-      </c>
-      <c r="H3" s="77" t="s">
-        <v>295</v>
-      </c>
-      <c r="I3" s="77" t="s">
-        <v>307</v>
-      </c>
-      <c r="J3" s="77" t="s">
-        <v>308</v>
-      </c>
-      <c r="K3" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="L3" s="86" t="s">
-        <v>240</v>
-      </c>
-      <c r="M3" s="86" t="s">
-        <v>266</v>
-      </c>
-      <c r="N3" s="86" t="s">
-        <v>277</v>
-      </c>
-      <c r="O3" s="86" t="s">
-        <v>277</v>
-      </c>
-      <c r="P3" s="86" t="s">
-        <v>270</v>
-      </c>
       <c r="Q3" s="84" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="32.4">
       <c r="A4" s="90" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>348</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>293</v>
+      </c>
+      <c r="I4" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="J4" s="77" t="s">
+        <v>306</v>
+      </c>
+      <c r="K4" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="L4" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="M4" s="80" t="s">
+        <v>264</v>
+      </c>
+      <c r="N4" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="O4" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="P4" s="80" t="s">
         <v>268</v>
       </c>
-      <c r="E4" s="85" t="s">
-        <v>350</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>299</v>
-      </c>
-      <c r="H4" s="79" t="s">
-        <v>295</v>
-      </c>
-      <c r="I4" s="77" t="s">
-        <v>307</v>
-      </c>
-      <c r="J4" s="77" t="s">
-        <v>308</v>
-      </c>
-      <c r="K4" s="79" t="s">
-        <v>223</v>
-      </c>
-      <c r="L4" s="80" t="s">
-        <v>241</v>
-      </c>
-      <c r="M4" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="N4" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="O4" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="P4" s="80" t="s">
-        <v>270</v>
-      </c>
       <c r="Q4" s="84" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="32.4">
       <c r="A5" s="89" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D5" s="85" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E5" s="85" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F5" s="81"/>
       <c r="G5" s="77" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H5" s="79" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I5" s="77" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K5" s="79" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L5" s="80" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M5" s="80" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N5" s="80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O5" s="80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P5" s="80" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q5" s="84" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="32.4">
       <c r="A6" s="90" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D6" s="84" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="77" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H6" s="79" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I6" s="77" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J6" s="77" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K6" s="79" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L6" s="80" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M6" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="N6" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="O6" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="P6" s="93" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q6" s="84" t="s">
         <v>276</v>
-      </c>
-      <c r="N6" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="O6" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="P6" s="93" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q6" s="84" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="32.4">
       <c r="A7" s="90" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D7" s="84" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E7" s="84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F7" s="81"/>
       <c r="G7" s="77" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H7" s="81" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I7" s="77" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J7" s="77" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K7" s="79" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L7" s="80" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M7" s="80" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N7" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="O7" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="P7" s="80" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q7" s="84" t="s">
         <v>277</v>
-      </c>
-      <c r="O7" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="P7" s="80" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q7" s="84" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="90" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D8" s="79" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" s="82" t="s">
         <v>322</v>
       </c>
-      <c r="F8" s="82" t="s">
-        <v>324</v>
-      </c>
       <c r="G8" s="82" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H8" s="82" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I8" s="77" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K8" s="83" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L8" s="80" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M8" s="80"/>
       <c r="N8" s="80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O8" s="80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P8" s="80"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="90" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D9" s="79" t="s">
+        <v>321</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="G9" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="F9" s="82" t="s">
-        <v>324</v>
-      </c>
-      <c r="G9" s="82" t="s">
-        <v>325</v>
-      </c>
       <c r="H9" s="82" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I9" s="77" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K9" s="83" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L9" s="80" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M9" s="80"/>
       <c r="N9" s="80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O9" s="80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P9" s="80"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="81" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H10" s="79" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I10" s="77" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K10" s="79" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L10" s="80" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M10" s="80"/>
       <c r="N10" s="80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O10" s="80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P10" s="80"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="81" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B11" s="81">
         <v>310</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D11" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="H11" s="79" t="s">
         <v>336</v>
-      </c>
-      <c r="F11" s="82" t="s">
-        <v>324</v>
-      </c>
-      <c r="G11" s="79" t="s">
-        <v>337</v>
-      </c>
-      <c r="H11" s="79" t="s">
-        <v>338</v>
       </c>
       <c r="I11" s="77"/>
       <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B12" s="81">
         <v>320</v>
       </c>
       <c r="C12" s="79" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D12" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="H12" s="79" t="s">
         <v>336</v>
-      </c>
-      <c r="F12" s="82" t="s">
-        <v>324</v>
-      </c>
-      <c r="G12" s="79" t="s">
-        <v>337</v>
-      </c>
-      <c r="H12" s="79" t="s">
-        <v>338</v>
       </c>
       <c r="I12" s="77"/>
       <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="81" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B13" s="81">
         <v>330</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D13" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="H13" s="79" t="s">
         <v>336</v>
-      </c>
-      <c r="F13" s="82" t="s">
-        <v>324</v>
-      </c>
-      <c r="G13" s="79" t="s">
-        <v>337</v>
-      </c>
-      <c r="H13" s="79" t="s">
-        <v>338</v>
       </c>
       <c r="I13" s="77"/>
       <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="81" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B14" s="81">
         <v>340</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D14" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="H14" s="79" t="s">
         <v>336</v>
-      </c>
-      <c r="F14" s="82" t="s">
-        <v>324</v>
-      </c>
-      <c r="G14" s="79" t="s">
-        <v>337</v>
-      </c>
-      <c r="H14" s="79" t="s">
-        <v>338</v>
       </c>
       <c r="I14" s="77"/>
       <c r="J14" s="77"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="81" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F15" s="82"/>
       <c r="I15" s="77"/>
       <c r="J15" s="77"/>
       <c r="K15" s="79" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="81" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D16" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="H16" s="79" t="s">
         <v>336</v>
-      </c>
-      <c r="F16" s="82" t="s">
-        <v>324</v>
-      </c>
-      <c r="G16" s="79" t="s">
-        <v>337</v>
-      </c>
-      <c r="H16" s="79" t="s">
-        <v>338</v>
       </c>
       <c r="I16" s="77"/>
       <c r="J16" s="77"/>
@@ -5039,22 +5043,22 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="81" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D17" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="G17" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="H17" s="79" t="s">
         <v>336</v>
-      </c>
-      <c r="F17" s="82" t="s">
-        <v>324</v>
-      </c>
-      <c r="G17" s="79" t="s">
-        <v>337</v>
-      </c>
-      <c r="H17" s="79" t="s">
-        <v>338</v>
       </c>
       <c r="I17" s="77"/>
       <c r="J17" s="77"/>
@@ -5062,22 +5066,22 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="81" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D18" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="F18" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="G18" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="H18" s="79" t="s">
         <v>336</v>
-      </c>
-      <c r="F18" s="82" t="s">
-        <v>324</v>
-      </c>
-      <c r="G18" s="79" t="s">
-        <v>337</v>
-      </c>
-      <c r="H18" s="79" t="s">
-        <v>338</v>
       </c>
       <c r="I18" s="77"/>
       <c r="J18" s="77"/>
@@ -5085,22 +5089,22 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="81" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D19" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="F19" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="H19" s="79" t="s">
         <v>336</v>
-      </c>
-      <c r="F19" s="82" t="s">
-        <v>324</v>
-      </c>
-      <c r="G19" s="79" t="s">
-        <v>337</v>
-      </c>
-      <c r="H19" s="79" t="s">
-        <v>338</v>
       </c>
       <c r="I19" s="77"/>
       <c r="J19" s="77"/>
@@ -5108,76 +5112,76 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="81" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D20" s="79" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I20" s="77"/>
       <c r="J20" s="77"/>
       <c r="K20" s="79" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="39.6" customHeight="1">
       <c r="A21" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" s="79" t="s">
         <v>288</v>
       </c>
-      <c r="C21" s="79" t="s">
-        <v>290</v>
-      </c>
       <c r="D21" s="79" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E21" s="79" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G21" s="79" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H21" s="79" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I21" s="77" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J21" s="77" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K21" s="79" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L21" s="80" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N21" s="80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O21" s="80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P21" s="79" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="39.6" customHeight="1">
       <c r="A22" s="92" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E22" s="79" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F22" s="79" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I22" s="77"/>
       <c r="J22" s="77"/>
@@ -5187,22 +5191,22 @@
     </row>
     <row r="23" spans="1:17" ht="39.6" customHeight="1">
       <c r="A23" s="92" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C23" s="79" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D23" s="79" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E23" s="79" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F23" s="79" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G23" s="79" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I23" s="77"/>
       <c r="J23" s="77"/>
@@ -5219,49 +5223,49 @@
     </row>
     <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="90" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D25" s="84" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E25" s="84" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G25" s="79" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H25" s="79" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I25" s="77" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J25" s="77" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K25" s="79" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L25" s="80" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M25" s="79" t="s">
+        <v>302</v>
+      </c>
+      <c r="N25" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="O25" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="P25" s="79" t="s">
         <v>304</v>
       </c>
-      <c r="N25" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="O25" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="P25" s="79" t="s">
-        <v>306</v>
-      </c>
       <c r="Q25" s="79" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -5274,96 +5278,96 @@
     </row>
     <row r="28" spans="1:17" ht="64.8">
       <c r="A28" s="89" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C28" s="84" t="s">
+        <v>315</v>
+      </c>
+      <c r="D28" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="E28" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="H28" s="79" t="s">
+        <v>295</v>
+      </c>
+      <c r="I28" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="J28" s="77" t="s">
+        <v>307</v>
+      </c>
+      <c r="K28" s="79" t="s">
+        <v>301</v>
+      </c>
+      <c r="L28" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="M28" s="84" t="s">
+        <v>311</v>
+      </c>
+      <c r="N28" s="79" t="s">
+        <v>280</v>
+      </c>
+      <c r="O28" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="P28" s="84" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q28" s="79" t="s">
         <v>317</v>
-      </c>
-      <c r="D28" s="84" t="s">
-        <v>311</v>
-      </c>
-      <c r="E28" s="84" t="s">
-        <v>350</v>
-      </c>
-      <c r="G28" s="77" t="s">
-        <v>299</v>
-      </c>
-      <c r="H28" s="79" t="s">
-        <v>297</v>
-      </c>
-      <c r="I28" s="77" t="s">
-        <v>307</v>
-      </c>
-      <c r="J28" s="77" t="s">
-        <v>309</v>
-      </c>
-      <c r="K28" s="79" t="s">
-        <v>303</v>
-      </c>
-      <c r="L28" s="80" t="s">
-        <v>241</v>
-      </c>
-      <c r="M28" s="84" t="s">
-        <v>313</v>
-      </c>
-      <c r="N28" s="79" t="s">
-        <v>282</v>
-      </c>
-      <c r="O28" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="P28" s="84" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q28" s="79" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="55.95" customHeight="1">
       <c r="A29" s="90" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D29" s="84" t="s">
+        <v>310</v>
+      </c>
+      <c r="E29" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="G29" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="H29" s="79" t="s">
+        <v>285</v>
+      </c>
+      <c r="I29" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="J29" s="77" t="s">
+        <v>308</v>
+      </c>
+      <c r="K29" s="79" t="s">
+        <v>301</v>
+      </c>
+      <c r="L29" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="M29" s="84" t="s">
         <v>312</v>
       </c>
-      <c r="E29" s="84" t="s">
-        <v>350</v>
-      </c>
-      <c r="G29" s="77" t="s">
-        <v>299</v>
-      </c>
-      <c r="H29" s="79" t="s">
-        <v>287</v>
-      </c>
-      <c r="I29" s="77" t="s">
-        <v>307</v>
-      </c>
-      <c r="J29" s="77" t="s">
-        <v>310</v>
-      </c>
-      <c r="K29" s="79" t="s">
-        <v>303</v>
-      </c>
-      <c r="L29" s="80" t="s">
-        <v>241</v>
-      </c>
-      <c r="M29" s="84" t="s">
-        <v>314</v>
-      </c>
       <c r="N29" s="79" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O29" s="80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P29" s="84" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q29" s="79" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6AEA38-4C46-417E-9DD1-6538AD36ED15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">資料轉換!$A$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="394">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1547,10 +1548,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>FacmNo ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CustNo ASC,FacmNo ASC</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1596,11 +1593,26 @@
 5.另收欠款</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>FacmNo ASC,RvNo DESC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>useL2r58Eq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNo ASC,RvNo Asc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND FacmNo = ,AND AcctFlag &gt;= ,AND AcctFlag &lt;= ,AND RvNo %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -2332,9 +2344,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="3"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2491,6 +2503,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2526,6 +2555,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2701,7 +2747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -2843,10 +2889,10 @@
         <v>86</v>
       </c>
       <c r="C9" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="E9" s="43">
         <v>3</v>
@@ -2917,7 +2963,7 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3079,7 +3125,7 @@
         <v>76</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>77</v>
@@ -3089,7 +3135,7 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3507,12 +3553,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3597,7 +3643,7 @@
         <v>157</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3608,7 +3654,7 @@
         <v>183</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="32.4">
@@ -3641,7 +3687,7 @@
         <v>208</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
@@ -3685,7 +3731,18 @@
         <v>381</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>382</v>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -3696,10 +3753,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -3832,7 +3889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4429,7 +4486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -5371,7 +5428,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1"/>
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6AEA38-4C46-417E-9DD1-6538AD36ED15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C23EE93-B7BF-4DB2-9D9B-E7B2F8DA437A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="396">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1607,6 +1607,14 @@
   </si>
   <si>
     <t>CustNo = ,AND FacmNo = ,AND AcctFlag &gt;= ,AND AcctFlag &lt;= ,AND RvNo %</t>
+  </si>
+  <si>
+    <t>useBs902Eq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo &gt;= ,AND CustNo &lt;= ,AND ClsFlag = ,AND ReceivableFlag = ,AND RvNo %</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3554,11 +3562,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3743,6 +3751,17 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C23EE93-B7BF-4DB2-9D9B-E7B2F8DA437A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">資料轉換!$A$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="397">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1042,10 +1041,6 @@
   </si>
   <si>
     <t>轉換規則</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuStartDate保險起日</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -1616,11 +1611,19 @@
     <t>CustNo &gt;= ,AND CustNo &lt;= ,AND ClsFlag = ,AND ReceivableFlag = ,AND RvNo %</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>火險單年月InsuYearMonth+01</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>火險單年月InsuYearMonth+01</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -2352,9 +2355,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="3"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2511,23 +2514,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2563,23 +2549,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2755,7 +2724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -2897,10 +2866,10 @@
         <v>86</v>
       </c>
       <c r="C9" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="E9" s="43">
         <v>3</v>
@@ -2971,7 +2940,7 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3121,7 +3090,7 @@
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1" ht="81">
@@ -3133,7 +3102,7 @@
         <v>76</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>77</v>
@@ -3143,7 +3112,7 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3264,10 +3233,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="95" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" s="96" t="s">
         <v>370</v>
-      </c>
-      <c r="C26" s="96" t="s">
-        <v>371</v>
       </c>
       <c r="D26" s="96" t="s">
         <v>85</v>
@@ -3277,7 +3246,7 @@
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="98" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3299,7 +3268,7 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3374,7 +3343,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C31" s="42" t="s">
         <v>14</v>
@@ -3561,10 +3530,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
@@ -3651,7 +3620,7 @@
         <v>157</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3662,7 +3631,7 @@
         <v>183</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="32.4">
@@ -3695,15 +3664,15 @@
         <v>208</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>197</v>
@@ -3711,10 +3680,10 @@
     </row>
     <row r="13" spans="1:3" ht="32.4">
       <c r="A13" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>193</v>
@@ -3722,10 +3691,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>184</v>
@@ -3733,32 +3702,32 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>184</v>
@@ -3772,7 +3741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3822,7 +3791,7 @@
         <v>54</v>
       </c>
       <c r="I5" s="94" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1">
@@ -3830,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D6" s="74" t="s">
         <v>179</v>
@@ -3843,10 +3812,10 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1">
@@ -3854,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>354</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>355</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>85</v>
@@ -3867,10 +3836,10 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I7" s="35" t="s">
         <v>356</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1">
@@ -3878,10 +3847,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>12</v>
@@ -3891,10 +3860,10 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3908,7 +3877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4505,12 +4474,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
@@ -4530,7 +4499,7 @@
     <col min="13" max="13" width="21.77734375" style="79" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.21875" style="79" customWidth="1"/>
     <col min="15" max="15" width="8" style="79" customWidth="1"/>
-    <col min="16" max="16" width="25.109375" style="79" customWidth="1"/>
+    <col min="16" max="16" width="31.44140625" style="79" customWidth="1"/>
     <col min="17" max="17" width="53" style="79" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="8.88671875" style="79"/>
   </cols>
@@ -4549,7 +4518,7 @@
         <v>265</v>
       </c>
       <c r="E1" s="88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F1" s="78" t="s">
         <v>247</v>
@@ -4558,7 +4527,7 @@
         <v>248</v>
       </c>
       <c r="H1" s="78" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I1" s="78" t="s">
         <v>263</v>
@@ -4600,7 +4569,7 @@
         <v>250</v>
       </c>
       <c r="H2" s="78" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I2" s="78" t="s">
         <v>262</v>
@@ -4633,25 +4602,25 @@
       </c>
       <c r="B3" s="84"/>
       <c r="C3" s="77" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D3" s="87" t="s">
         <v>266</v>
       </c>
       <c r="E3" s="87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G3" s="77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H3" s="77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I3" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" s="77" t="s">
         <v>305</v>
-      </c>
-      <c r="J3" s="77" t="s">
-        <v>306</v>
       </c>
       <c r="K3" s="77" t="s">
         <v>237</v>
@@ -4663,16 +4632,16 @@
         <v>264</v>
       </c>
       <c r="N3" s="86" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O3" s="86" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P3" s="86" t="s">
-        <v>268</v>
+        <v>395</v>
       </c>
       <c r="Q3" s="84" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="32.4">
@@ -4686,19 +4655,19 @@
         <v>266</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G4" s="77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H4" s="79" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I4" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" s="77" t="s">
         <v>305</v>
-      </c>
-      <c r="J4" s="77" t="s">
-        <v>306</v>
       </c>
       <c r="K4" s="79" t="s">
         <v>221</v>
@@ -4710,16 +4679,16 @@
         <v>264</v>
       </c>
       <c r="N4" s="80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O4" s="80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P4" s="80" t="s">
-        <v>268</v>
+        <v>396</v>
       </c>
       <c r="Q4" s="84" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="32.4">
@@ -4733,20 +4702,20 @@
         <v>266</v>
       </c>
       <c r="E5" s="85" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F5" s="81"/>
       <c r="G5" s="77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H5" s="79" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I5" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" s="77" t="s">
         <v>305</v>
-      </c>
-      <c r="J5" s="77" t="s">
-        <v>306</v>
       </c>
       <c r="K5" s="79" t="s">
         <v>236</v>
@@ -4758,16 +4727,16 @@
         <v>264</v>
       </c>
       <c r="N5" s="80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O5" s="80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P5" s="80" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q5" s="84" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="32.4">
@@ -4778,23 +4747,23 @@
         <v>218</v>
       </c>
       <c r="D6" s="84" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H6" s="79" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I6" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" s="77" t="s">
         <v>305</v>
-      </c>
-      <c r="J6" s="77" t="s">
-        <v>306</v>
       </c>
       <c r="K6" s="79" t="s">
         <v>221</v>
@@ -4803,19 +4772,19 @@
         <v>239</v>
       </c>
       <c r="M6" s="80" t="s">
+        <v>273</v>
+      </c>
+      <c r="N6" s="80" t="s">
         <v>274</v>
       </c>
-      <c r="N6" s="80" t="s">
+      <c r="O6" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="P6" s="93" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q6" s="84" t="s">
         <v>275</v>
-      </c>
-      <c r="O6" s="80" t="s">
-        <v>275</v>
-      </c>
-      <c r="P6" s="93" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q6" s="84" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="32.4">
@@ -4826,23 +4795,23 @@
         <v>232</v>
       </c>
       <c r="D7" s="84" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E7" s="84" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F7" s="81"/>
       <c r="G7" s="77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H7" s="81" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I7" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" s="77" t="s">
         <v>305</v>
-      </c>
-      <c r="J7" s="77" t="s">
-        <v>306</v>
       </c>
       <c r="K7" s="79" t="s">
         <v>236</v>
@@ -4851,19 +4820,19 @@
         <v>239</v>
       </c>
       <c r="M7" s="80" t="s">
+        <v>273</v>
+      </c>
+      <c r="N7" s="80" t="s">
         <v>274</v>
       </c>
-      <c r="N7" s="80" t="s">
-        <v>275</v>
-      </c>
       <c r="O7" s="80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P7" s="80" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q7" s="84" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4871,25 +4840,25 @@
         <v>225</v>
       </c>
       <c r="C8" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" s="79" t="s">
         <v>319</v>
       </c>
-      <c r="D8" s="79" t="s">
-        <v>320</v>
-      </c>
       <c r="F8" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="G8" s="82" t="s">
         <v>322</v>
       </c>
-      <c r="G8" s="82" t="s">
-        <v>323</v>
-      </c>
       <c r="H8" s="82" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I8" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="J8" s="77" t="s">
         <v>305</v>
-      </c>
-      <c r="J8" s="77" t="s">
-        <v>306</v>
       </c>
       <c r="K8" s="83" t="s">
         <v>237</v>
@@ -4899,10 +4868,10 @@
       </c>
       <c r="M8" s="80"/>
       <c r="N8" s="80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O8" s="80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P8" s="80"/>
     </row>
@@ -4914,22 +4883,22 @@
         <v>209</v>
       </c>
       <c r="D9" s="79" t="s">
+        <v>320</v>
+      </c>
+      <c r="F9" s="82" t="s">
         <v>321</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="G9" s="82" t="s">
         <v>322</v>
       </c>
-      <c r="G9" s="82" t="s">
-        <v>323</v>
-      </c>
       <c r="H9" s="82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I9" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="J9" s="77" t="s">
         <v>305</v>
-      </c>
-      <c r="J9" s="77" t="s">
-        <v>306</v>
       </c>
       <c r="K9" s="83" t="s">
         <v>237</v>
@@ -4939,10 +4908,10 @@
       </c>
       <c r="M9" s="80"/>
       <c r="N9" s="80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O9" s="80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P9" s="80"/>
     </row>
@@ -4951,32 +4920,32 @@
         <v>227</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H10" s="79" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I10" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="J10" s="77" t="s">
         <v>305</v>
       </c>
-      <c r="J10" s="77" t="s">
-        <v>306</v>
-      </c>
       <c r="K10" s="79" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L10" s="80" t="s">
         <v>238</v>
       </c>
       <c r="M10" s="80"/>
       <c r="N10" s="80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O10" s="80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P10" s="80"/>
     </row>
@@ -4991,16 +4960,16 @@
         <v>210</v>
       </c>
       <c r="D11" s="79" t="s">
+        <v>333</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="G11" s="79" t="s">
         <v>334</v>
       </c>
-      <c r="F11" s="82" t="s">
-        <v>322</v>
-      </c>
-      <c r="G11" s="79" t="s">
+      <c r="H11" s="79" t="s">
         <v>335</v>
-      </c>
-      <c r="H11" s="79" t="s">
-        <v>336</v>
       </c>
       <c r="I11" s="77"/>
       <c r="J11" s="77"/>
@@ -5016,16 +4985,16 @@
         <v>211</v>
       </c>
       <c r="D12" s="79" t="s">
+        <v>333</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="G12" s="79" t="s">
         <v>334</v>
       </c>
-      <c r="F12" s="82" t="s">
-        <v>322</v>
-      </c>
-      <c r="G12" s="79" t="s">
+      <c r="H12" s="79" t="s">
         <v>335</v>
-      </c>
-      <c r="H12" s="79" t="s">
-        <v>336</v>
       </c>
       <c r="I12" s="77"/>
       <c r="J12" s="77"/>
@@ -5041,16 +5010,16 @@
         <v>212</v>
       </c>
       <c r="D13" s="79" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="G13" s="79" t="s">
         <v>334</v>
       </c>
-      <c r="F13" s="82" t="s">
-        <v>322</v>
-      </c>
-      <c r="G13" s="79" t="s">
+      <c r="H13" s="79" t="s">
         <v>335</v>
-      </c>
-      <c r="H13" s="79" t="s">
-        <v>336</v>
       </c>
       <c r="I13" s="77"/>
       <c r="J13" s="77"/>
@@ -5066,52 +5035,52 @@
         <v>213</v>
       </c>
       <c r="D14" s="79" t="s">
+        <v>333</v>
+      </c>
+      <c r="F14" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="G14" s="79" t="s">
         <v>334</v>
       </c>
-      <c r="F14" s="82" t="s">
-        <v>322</v>
-      </c>
-      <c r="G14" s="79" t="s">
+      <c r="H14" s="79" t="s">
         <v>335</v>
-      </c>
-      <c r="H14" s="79" t="s">
-        <v>336</v>
       </c>
       <c r="I14" s="77"/>
       <c r="J14" s="77"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="81" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="79" t="s">
         <v>340</v>
-      </c>
-      <c r="C15" s="79" t="s">
-        <v>341</v>
       </c>
       <c r="F15" s="82"/>
       <c r="I15" s="77"/>
       <c r="J15" s="77"/>
       <c r="K15" s="79" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="81" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C16" s="51" t="s">
         <v>214</v>
       </c>
       <c r="D16" s="79" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="G16" s="79" t="s">
         <v>334</v>
       </c>
-      <c r="F16" s="82" t="s">
-        <v>322</v>
-      </c>
-      <c r="G16" s="79" t="s">
+      <c r="H16" s="79" t="s">
         <v>335</v>
-      </c>
-      <c r="H16" s="79" t="s">
-        <v>336</v>
       </c>
       <c r="I16" s="77"/>
       <c r="J16" s="77"/>
@@ -5119,22 +5088,22 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="81" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C17" s="51" t="s">
         <v>215</v>
       </c>
       <c r="D17" s="79" t="s">
+        <v>333</v>
+      </c>
+      <c r="F17" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="G17" s="79" t="s">
         <v>334</v>
       </c>
-      <c r="F17" s="82" t="s">
-        <v>322</v>
-      </c>
-      <c r="G17" s="79" t="s">
+      <c r="H17" s="79" t="s">
         <v>335</v>
-      </c>
-      <c r="H17" s="79" t="s">
-        <v>336</v>
       </c>
       <c r="I17" s="77"/>
       <c r="J17" s="77"/>
@@ -5142,22 +5111,22 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="81" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C18" s="79" t="s">
         <v>216</v>
       </c>
       <c r="D18" s="79" t="s">
+        <v>333</v>
+      </c>
+      <c r="F18" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="G18" s="79" t="s">
         <v>334</v>
       </c>
-      <c r="F18" s="82" t="s">
-        <v>322</v>
-      </c>
-      <c r="G18" s="79" t="s">
+      <c r="H18" s="79" t="s">
         <v>335</v>
-      </c>
-      <c r="H18" s="79" t="s">
-        <v>336</v>
       </c>
       <c r="I18" s="77"/>
       <c r="J18" s="77"/>
@@ -5165,22 +5134,22 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="81" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C19" s="79" t="s">
         <v>217</v>
       </c>
       <c r="D19" s="79" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="G19" s="79" t="s">
         <v>334</v>
       </c>
-      <c r="F19" s="82" t="s">
-        <v>322</v>
-      </c>
-      <c r="G19" s="79" t="s">
+      <c r="H19" s="79" t="s">
         <v>335</v>
-      </c>
-      <c r="H19" s="79" t="s">
-        <v>336</v>
       </c>
       <c r="I19" s="77"/>
       <c r="J19" s="77"/>
@@ -5188,44 +5157,44 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="C20" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="C20" s="79" t="s">
-        <v>366</v>
-      </c>
       <c r="D20" s="79" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I20" s="77"/>
       <c r="J20" s="77"/>
       <c r="K20" s="79" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="39.6" customHeight="1">
       <c r="A21" s="90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C21" s="79" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21" s="79" t="s">
+        <v>348</v>
+      </c>
+      <c r="G21" s="79" t="s">
+        <v>295</v>
+      </c>
+      <c r="H21" s="79" t="s">
         <v>288</v>
       </c>
-      <c r="D21" s="79" t="s">
-        <v>325</v>
-      </c>
-      <c r="E21" s="79" t="s">
-        <v>349</v>
-      </c>
-      <c r="G21" s="79" t="s">
-        <v>296</v>
-      </c>
-      <c r="H21" s="79" t="s">
-        <v>289</v>
-      </c>
       <c r="I21" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" s="77" t="s">
         <v>305</v>
-      </c>
-      <c r="J21" s="77" t="s">
-        <v>306</v>
       </c>
       <c r="K21" s="79" t="s">
         <v>236</v>
@@ -5234,30 +5203,30 @@
         <v>239</v>
       </c>
       <c r="N21" s="80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O21" s="80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P21" s="79" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="39.6" customHeight="1">
       <c r="A22" s="92" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E22" s="79" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F22" s="79" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I22" s="77"/>
       <c r="J22" s="77"/>
@@ -5267,22 +5236,22 @@
     </row>
     <row r="23" spans="1:17" ht="39.6" customHeight="1">
       <c r="A23" s="92" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C23" s="79" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D23" s="79" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E23" s="79" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F23" s="79" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G23" s="79" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I23" s="77"/>
       <c r="J23" s="77"/>
@@ -5299,28 +5268,28 @@
     </row>
     <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="90" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D25" s="84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E25" s="84" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G25" s="79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H25" s="79" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I25" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="J25" s="77" t="s">
         <v>305</v>
-      </c>
-      <c r="J25" s="77" t="s">
-        <v>306</v>
       </c>
       <c r="K25" s="79" t="s">
         <v>236</v>
@@ -5329,19 +5298,19 @@
         <v>239</v>
       </c>
       <c r="M25" s="79" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N25" s="80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O25" s="80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P25" s="79" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="79" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -5354,100 +5323,100 @@
     </row>
     <row r="28" spans="1:17" ht="64.8">
       <c r="A28" s="89" t="s">
+        <v>313</v>
+      </c>
+      <c r="C28" s="84" t="s">
         <v>314</v>
       </c>
-      <c r="C28" s="84" t="s">
-        <v>315</v>
-      </c>
       <c r="D28" s="84" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E28" s="84" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G28" s="77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H28" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I28" s="77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J28" s="77" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K28" s="79" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L28" s="80" t="s">
         <v>239</v>
       </c>
       <c r="M28" s="84" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N28" s="79" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O28" s="80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P28" s="84" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="79" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="55.95" customHeight="1">
       <c r="A29" s="90" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" s="79" t="s">
         <v>281</v>
       </c>
-      <c r="C29" s="79" t="s">
-        <v>282</v>
-      </c>
       <c r="D29" s="84" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G29" s="77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H29" s="79" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I29" s="77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J29" s="77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K29" s="79" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L29" s="80" t="s">
         <v>239</v>
       </c>
       <c r="M29" s="84" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N29" s="79" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O29" s="80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P29" s="84" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="79" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:Q1"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7AB321-93CD-4C08-9701-9987828E0EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">資料轉換!$A$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -346,15 +347,6 @@
   </si>
   <si>
     <t>會計銷帳檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔
-201 :利變年金</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.未銷、1.已銷</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1468,11 +1460,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>0: 一般科目
-1: 資負明細科目</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>AS400無資料</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -1501,10 +1488,6 @@
   </si>
   <si>
     <t>區隔帳冊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>00A:傳統帳冊;201:利變年金帳冊</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1555,20 +1538,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1.暫收款－可抵繳 : ''primary key 不可有null, 放一個空白
-2.擔保放款、催收款項 : 撥款序號(3)
-3.會計銷帳科目：系統自編(AC+西元年後兩碼+流水號六碼)
-4.暫收款－支票：支票帳號(9)-支票號碼(7) 
-5.未收帳管費：第一筆撥款序號(3) 
-6.未收契變手續費：契變日期(8,西元)+契變序號(02)
-7.未收、暫收、暫付、催收火險保費：原保險單號碼
-8.暫付、催收法務費：記錄號碼(8)
-9.短繳期金：撥款序號(3)
-10.'FacmNo'+額度編號(暫收款－借新還舊)
-11.聯貸手續費:SL-費用代號(2)-流水號(3)-攤提年月(YYYMM)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">業務科目代號  </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1578,6 +1547,61 @@
   </si>
   <si>
     <t xml:space="preserve">銷帳科目記號    </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNo ASC,RvNo DESC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>useL2r58Eq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNo ASC,RvNo Asc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND FacmNo = ,AND AcctFlag &gt;= ,AND AcctFlag &lt;= ,AND RvNo %</t>
+  </si>
+  <si>
+    <t>useBs902Eq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo &gt;= ,AND CustNo &lt;= ,AND ClsFlag = ,AND ReceivableFlag = ,AND RvNo %</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火險單年月InsuYearMonth+01</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>火險單年月InsuYearMonth+01</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:暫收款－可抵繳 : ''primary key 不可有null, 放一個空白
+2:擔保放款、催收款項 : 撥款序號(3)
+3:會計銷帳科目：系統自編(AC+西元年後兩碼+流水號六碼)
+4:暫收款－支票：支票帳號(9)-支票號碼(7) 
+5:未收帳管費：第一筆撥款序號(3) 
+6:未收契變手續費：契變日期(8,西元)+契變序號(02)
+7:未收、暫收、暫付、催收火險保費：原保險單號碼
+8:暫付、催收法務費：記錄號碼(8)
+9:短繳期金：撥款序號(3)
+10:'FacmNo'+額度編號(暫收款－借新還舊)
+11:聯貸手續費:SL-費用代號(2)-流水號(3)-攤提年月(YYYMM)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未銷
+1:已銷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:一般科目
+1:資負明細科目</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1585,45 +1609,24 @@
 2:業務銷帳科目
 3:未收費用
 4:短繳期金
-5.另收欠款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FacmNo ASC,RvNo DESC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>useL2r58Eq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FacmNo ASC,RvNo Asc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo = ,AND FacmNo = ,AND AcctFlag &gt;= ,AND AcctFlag &lt;= ,AND RvNo %</t>
-  </si>
-  <si>
-    <t>useBs902Eq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo &gt;= ,AND CustNo &lt;= ,AND ClsFlag = ,AND ReceivableFlag = ,AND RvNo %</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火險單年月InsuYearMonth+01</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>火險單年月InsuYearMonth+01</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+5:另收欠款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+201:利變年金</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00A:傳統帳冊
+201:利變年金帳冊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -2322,9 +2325,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2351,13 +2351,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="3"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2514,6 +2517,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2549,6 +2569,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2724,11 +2761,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2743,10 +2780,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="99"/>
       <c r="C1" s="7" t="s">
         <v>79</v>
       </c>
@@ -2758,8 +2795,8 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2771,12 +2808,12 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="102"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
@@ -2786,10 +2823,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="101"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="14"/>
@@ -2797,12 +2834,12 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14"/>
@@ -2810,12 +2847,12 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="32.4">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="14"/>
@@ -2823,12 +2860,12 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="101"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="14"/>
@@ -2863,20 +2900,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E9" s="43">
         <v>3</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2885,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>20</v>
@@ -2905,7 +2942,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>21</v>
@@ -2918,7 +2955,7 @@
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="178.2">
@@ -2940,7 +2977,7 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="28" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2962,7 +2999,7 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="35" customFormat="1">
@@ -3049,7 +3086,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="32.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3061,14 +3098,14 @@
         <v>65</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E18" s="27">
         <v>1</v>
       </c>
       <c r="F18" s="25"/>
-      <c r="G18" s="25" t="s">
-        <v>82</v>
+      <c r="G18" s="28" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4">
@@ -3077,7 +3114,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>66</v>
@@ -3090,7 +3127,7 @@
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1" ht="81">
@@ -3102,7 +3139,7 @@
         <v>76</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>77</v>
@@ -3112,7 +3149,7 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="37" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3143,7 +3180,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>37</v>
@@ -3194,7 +3231,7 @@
         <v>70</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>48</v>
@@ -3224,29 +3261,29 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="32.4">
       <c r="A26" s="41">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B26" s="95" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C26" s="96" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D26" s="96" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E26" s="97">
         <v>3</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="98" t="s">
-        <v>371</v>
+      <c r="G26" s="107" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3268,7 +3305,7 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3290,7 +3327,7 @@
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3312,7 +3349,7 @@
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3334,7 +3371,7 @@
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="40" customFormat="1">
@@ -3343,7 +3380,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C31" s="42" t="s">
         <v>14</v>
@@ -3356,7 +3393,7 @@
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3378,7 +3415,7 @@
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3400,7 +3437,7 @@
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="40" customFormat="1">
@@ -3409,10 +3446,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>12</v>
@@ -3442,7 +3479,7 @@
       </c>
       <c r="F35" s="23"/>
       <c r="G35" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3462,7 +3499,7 @@
       <c r="E36" s="27"/>
       <c r="F36" s="30"/>
       <c r="G36" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3530,7 +3567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -3559,178 +3596,178 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="32.4">
       <c r="A9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="32.4">
       <c r="A13" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>377</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3741,7 +3778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3760,12 +3797,12 @@
   <sheetData>
     <row r="1" spans="1:9" s="54" customFormat="1">
       <c r="A1" s="54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="54" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3791,7 +3828,7 @@
         <v>54</v>
       </c>
       <c r="I5" s="94" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1">
@@ -3799,10 +3836,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>12</v>
@@ -3812,10 +3849,10 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="34" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1">
@@ -3823,23 +3860,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F7" s="32">
         <v>1</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1">
@@ -3847,10 +3884,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>12</v>
@@ -3860,10 +3897,10 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="34" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3877,7 +3914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3897,7 +3934,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3908,67 +3945,67 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="105" t="s">
-        <v>175</v>
-      </c>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="105" t="s">
-        <v>174</v>
-      </c>
-      <c r="P9" s="107"/>
+        <v>97</v>
+      </c>
+      <c r="J9" s="104" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="P9" s="106"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="44"/>
       <c r="J10" s="55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K10" s="56" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L10" s="56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M10" s="56" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N10" s="57" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O10" s="55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P10" s="57" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -3983,13 +4020,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K12" s="63" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L12" s="64">
         <v>300000</v>
@@ -3998,24 +4035,24 @@
         <v>0</v>
       </c>
       <c r="N12" s="61" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O12" s="65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P12" s="61" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K13" s="63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L13" s="64">
         <v>500000</v>
@@ -4024,18 +4061,18 @@
         <v>0</v>
       </c>
       <c r="N13" s="61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O13" s="65" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P13" s="61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J14" s="65"/>
       <c r="K14" s="66"/>
@@ -4047,7 +4084,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J15" s="65"/>
       <c r="K15" s="66"/>
@@ -4059,7 +4096,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J16" s="65"/>
       <c r="K16" s="63"/>
@@ -4067,15 +4104,15 @@
       <c r="M16" s="64"/>
       <c r="N16" s="61"/>
       <c r="O16" s="65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P16" s="72" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J17" s="65"/>
       <c r="K17" s="63"/>
@@ -4083,15 +4120,15 @@
       <c r="M17" s="64"/>
       <c r="N17" s="61"/>
       <c r="O17" s="65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P17" s="72" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J18" s="67"/>
       <c r="K18" s="68"/>
@@ -4099,10 +4136,10 @@
       <c r="M18" s="69"/>
       <c r="N18" s="70"/>
       <c r="O18" s="67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P18" s="73" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4116,7 +4153,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -4124,177 +4161,177 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="44" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -4308,7 +4345,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -4316,67 +4353,67 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="44" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4384,42 +4421,42 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.8" thickBot="1">
       <c r="A83" s="45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.8" thickBot="1">
       <c r="A84" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="B84" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="C84" s="47" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="103">
+      <c r="A85" s="102">
         <v>1</v>
       </c>
       <c r="B85" s="48">
         <v>3</v>
       </c>
-      <c r="C85" s="103">
+      <c r="C85" s="102">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.8" thickBot="1">
-      <c r="A86" s="104"/>
+      <c r="A86" s="103"/>
       <c r="B86" s="49">
         <v>4</v>
       </c>
-      <c r="C86" s="104"/>
+      <c r="C86" s="103"/>
     </row>
     <row r="87" spans="1:3" ht="16.8" thickBot="1">
       <c r="A87" s="50">
@@ -4474,10 +4511,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
@@ -4506,581 +4543,581 @@
   <sheetData>
     <row r="1" spans="1:17" s="88" customFormat="1" ht="49.2" customHeight="1">
       <c r="A1" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="78" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="78" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="J1" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="78" t="s">
+      <c r="K1" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="88" t="s">
-        <v>265</v>
-      </c>
-      <c r="E1" s="88" t="s">
-        <v>346</v>
-      </c>
-      <c r="F1" s="78" t="s">
-        <v>247</v>
-      </c>
-      <c r="G1" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="H1" s="78" t="s">
-        <v>282</v>
-      </c>
-      <c r="I1" s="78" t="s">
-        <v>263</v>
-      </c>
-      <c r="J1" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>245</v>
-      </c>
       <c r="L1" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O1" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="P1" s="10" t="s">
-        <v>261</v>
-      </c>
       <c r="Q1" s="88" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="77" customFormat="1" ht="58.2" customHeight="1">
       <c r="A2" s="77" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C2" s="78"/>
       <c r="F2" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="H2" s="78" t="s">
+        <v>281</v>
+      </c>
+      <c r="I2" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="G2" s="78" t="s">
-        <v>250</v>
-      </c>
-      <c r="H2" s="78" t="s">
-        <v>283</v>
-      </c>
-      <c r="I2" s="78" t="s">
-        <v>262</v>
-      </c>
-      <c r="J2" s="78" t="s">
+      <c r="K2" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>253</v>
-      </c>
       <c r="M2" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O2" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="77" customFormat="1" ht="48.6">
       <c r="A3" s="91" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B3" s="84"/>
       <c r="C3" s="77" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E3" s="87" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G3" s="77" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H3" s="77" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I3" s="77" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K3" s="77" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L3" s="86" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M3" s="86" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N3" s="86" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O3" s="86" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P3" s="86" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Q3" s="84" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="32.4">
       <c r="A4" s="90" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C4" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>345</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>294</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>290</v>
+      </c>
+      <c r="I4" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="J4" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="K4" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="85" t="s">
-        <v>266</v>
-      </c>
-      <c r="E4" s="85" t="s">
-        <v>347</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="H4" s="79" t="s">
-        <v>292</v>
-      </c>
-      <c r="I4" s="77" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4" s="77" t="s">
-        <v>305</v>
-      </c>
-      <c r="K4" s="79" t="s">
-        <v>221</v>
-      </c>
       <c r="L4" s="80" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M4" s="80" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N4" s="80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O4" s="80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P4" s="80" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Q4" s="84" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="32.4">
       <c r="A5" s="89" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D5" s="85" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E5" s="85" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F5" s="81"/>
       <c r="G5" s="77" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H5" s="79" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I5" s="77" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K5" s="79" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L5" s="80" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M5" s="80" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N5" s="80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O5" s="80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P5" s="80" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="84" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="32.4">
       <c r="A6" s="90" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D6" s="84" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="77" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H6" s="79" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I6" s="77" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J6" s="77" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K6" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L6" s="80" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M6" s="80" t="s">
+        <v>271</v>
+      </c>
+      <c r="N6" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="O6" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="P6" s="93" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q6" s="84" t="s">
         <v>273</v>
-      </c>
-      <c r="N6" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="O6" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="P6" s="93" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q6" s="84" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="32.4">
       <c r="A7" s="90" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D7" s="84" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E7" s="84" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F7" s="81"/>
       <c r="G7" s="77" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H7" s="81" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I7" s="77" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J7" s="77" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K7" s="79" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L7" s="80" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M7" s="80" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N7" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="O7" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="P7" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q7" s="84" t="s">
         <v>274</v>
-      </c>
-      <c r="O7" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="P7" s="80" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q7" s="84" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="90" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D8" s="79" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="82" t="s">
         <v>319</v>
       </c>
-      <c r="F8" s="82" t="s">
-        <v>321</v>
-      </c>
       <c r="G8" s="82" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H8" s="82" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I8" s="77" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K8" s="83" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L8" s="80" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M8" s="80"/>
       <c r="N8" s="80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O8" s="80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P8" s="80"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="90" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D9" s="79" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="G9" s="82" t="s">
         <v>320</v>
       </c>
-      <c r="F9" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="G9" s="82" t="s">
-        <v>322</v>
-      </c>
       <c r="H9" s="82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I9" s="77" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K9" s="83" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L9" s="80" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M9" s="80"/>
       <c r="N9" s="80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O9" s="80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P9" s="80"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="81" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H10" s="79" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I10" s="77" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K10" s="79" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L10" s="80" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M10" s="80"/>
       <c r="N10" s="80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O10" s="80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P10" s="80"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="81" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B11" s="81">
         <v>310</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D11" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="H11" s="79" t="s">
         <v>333</v>
-      </c>
-      <c r="F11" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="G11" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="H11" s="79" t="s">
-        <v>335</v>
       </c>
       <c r="I11" s="77"/>
       <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="81" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B12" s="81">
         <v>320</v>
       </c>
       <c r="C12" s="79" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D12" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="H12" s="79" t="s">
         <v>333</v>
-      </c>
-      <c r="F12" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="G12" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="H12" s="79" t="s">
-        <v>335</v>
       </c>
       <c r="I12" s="77"/>
       <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="81" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B13" s="81">
         <v>330</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D13" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="H13" s="79" t="s">
         <v>333</v>
-      </c>
-      <c r="F13" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="G13" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="H13" s="79" t="s">
-        <v>335</v>
       </c>
       <c r="I13" s="77"/>
       <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B14" s="81">
         <v>340</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D14" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="F14" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="H14" s="79" t="s">
         <v>333</v>
-      </c>
-      <c r="F14" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="G14" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="H14" s="79" t="s">
-        <v>335</v>
       </c>
       <c r="I14" s="77"/>
       <c r="J14" s="77"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="81" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F15" s="82"/>
       <c r="I15" s="77"/>
       <c r="J15" s="77"/>
       <c r="K15" s="79" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="81" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D16" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="G16" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="H16" s="79" t="s">
         <v>333</v>
-      </c>
-      <c r="F16" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="G16" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="H16" s="79" t="s">
-        <v>335</v>
       </c>
       <c r="I16" s="77"/>
       <c r="J16" s="77"/>
@@ -5088,22 +5125,22 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="81" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D17" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="F17" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="G17" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="H17" s="79" t="s">
         <v>333</v>
-      </c>
-      <c r="F17" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="G17" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="H17" s="79" t="s">
-        <v>335</v>
       </c>
       <c r="I17" s="77"/>
       <c r="J17" s="77"/>
@@ -5111,22 +5148,22 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="81" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D18" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="F18" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="G18" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="H18" s="79" t="s">
         <v>333</v>
-      </c>
-      <c r="F18" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="G18" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="H18" s="79" t="s">
-        <v>335</v>
       </c>
       <c r="I18" s="77"/>
       <c r="J18" s="77"/>
@@ -5134,22 +5171,22 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="81" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D19" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="F19" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="H19" s="79" t="s">
         <v>333</v>
-      </c>
-      <c r="F19" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="G19" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="H19" s="79" t="s">
-        <v>335</v>
       </c>
       <c r="I19" s="77"/>
       <c r="J19" s="77"/>
@@ -5157,76 +5194,76 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="81" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D20" s="79" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I20" s="77"/>
       <c r="J20" s="77"/>
       <c r="K20" s="79" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="39.6" customHeight="1">
       <c r="A21" s="90" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="79" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="79" t="s">
-        <v>287</v>
-      </c>
       <c r="D21" s="79" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E21" s="79" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G21" s="79" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H21" s="79" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I21" s="77" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J21" s="77" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K21" s="79" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L21" s="80" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N21" s="80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O21" s="80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P21" s="79" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="39.6" customHeight="1">
       <c r="A22" s="92" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E22" s="79" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F22" s="79" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I22" s="77"/>
       <c r="J22" s="77"/>
@@ -5236,22 +5273,22 @@
     </row>
     <row r="23" spans="1:17" ht="39.6" customHeight="1">
       <c r="A23" s="92" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C23" s="79" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D23" s="79" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E23" s="79" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F23" s="79" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G23" s="79" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I23" s="77"/>
       <c r="J23" s="77"/>
@@ -5268,49 +5305,49 @@
     </row>
     <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="90" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D25" s="84" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E25" s="84" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G25" s="79" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H25" s="79" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I25" s="77" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J25" s="77" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K25" s="79" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L25" s="80" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M25" s="79" t="s">
+        <v>299</v>
+      </c>
+      <c r="N25" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="O25" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="P25" s="79" t="s">
         <v>301</v>
       </c>
-      <c r="N25" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="O25" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="P25" s="79" t="s">
-        <v>303</v>
-      </c>
       <c r="Q25" s="79" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -5323,100 +5360,100 @@
     </row>
     <row r="28" spans="1:17" ht="64.8">
       <c r="A28" s="89" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C28" s="84" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="E28" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>294</v>
+      </c>
+      <c r="H28" s="79" t="s">
+        <v>292</v>
+      </c>
+      <c r="I28" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="J28" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="K28" s="79" t="s">
+        <v>298</v>
+      </c>
+      <c r="L28" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="M28" s="84" t="s">
+        <v>308</v>
+      </c>
+      <c r="N28" s="79" t="s">
+        <v>277</v>
+      </c>
+      <c r="O28" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="P28" s="84" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q28" s="79" t="s">
         <v>314</v>
-      </c>
-      <c r="D28" s="84" t="s">
-        <v>308</v>
-      </c>
-      <c r="E28" s="84" t="s">
-        <v>347</v>
-      </c>
-      <c r="G28" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="H28" s="79" t="s">
-        <v>294</v>
-      </c>
-      <c r="I28" s="77" t="s">
-        <v>304</v>
-      </c>
-      <c r="J28" s="77" t="s">
-        <v>306</v>
-      </c>
-      <c r="K28" s="79" t="s">
-        <v>300</v>
-      </c>
-      <c r="L28" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="M28" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="N28" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="O28" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="P28" s="84" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q28" s="79" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="55.95" customHeight="1">
       <c r="A29" s="90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D29" s="84" t="s">
+        <v>307</v>
+      </c>
+      <c r="E29" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="G29" s="77" t="s">
+        <v>294</v>
+      </c>
+      <c r="H29" s="79" t="s">
+        <v>282</v>
+      </c>
+      <c r="I29" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="J29" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="K29" s="79" t="s">
+        <v>298</v>
+      </c>
+      <c r="L29" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="M29" s="84" t="s">
         <v>309</v>
       </c>
-      <c r="E29" s="84" t="s">
-        <v>347</v>
-      </c>
-      <c r="G29" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="H29" s="79" t="s">
-        <v>284</v>
-      </c>
-      <c r="I29" s="77" t="s">
-        <v>304</v>
-      </c>
-      <c r="J29" s="77" t="s">
-        <v>307</v>
-      </c>
-      <c r="K29" s="79" t="s">
-        <v>300</v>
-      </c>
-      <c r="L29" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="M29" s="84" t="s">
-        <v>311</v>
-      </c>
       <c r="N29" s="79" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O29" s="80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P29" s="84" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="79" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1"/>
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7AB321-93CD-4C08-9701-9987828E0EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441FBF49-5947-43B1-9B01-66549ADA122F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="397">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2325,6 +2325,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2351,9 +2354,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2764,8 +2764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2780,10 +2780,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="99"/>
+      <c r="B1" s="100"/>
       <c r="C1" s="7" t="s">
         <v>79</v>
       </c>
@@ -2795,8 +2795,8 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2808,10 +2808,10 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="16" t="s">
         <v>85</v>
       </c>
@@ -2823,36 +2823,36 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="100"/>
+      <c r="B4" s="101"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="101" t="s">
+    <row r="5" spans="1:7" ht="32.4">
+      <c r="A5" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="32.4">
-      <c r="A6" s="98" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="16" t="s">
-        <v>89</v>
+      <c r="B6" s="100"/>
+      <c r="C6" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="14"/>
@@ -2860,13 +2860,11 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="B7" s="101"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="17"/>
       <c r="E7" s="14"/>
       <c r="F7" s="15"/>
@@ -3282,7 +3280,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="107" t="s">
+      <c r="G26" s="98" t="s">
         <v>396</v>
       </c>
     </row>
@@ -3972,17 +3970,17 @@
       <c r="A9" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="104" t="s">
+      <c r="J9" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="104" t="s">
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="106"/>
+      <c r="P9" s="107"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="44"/>
@@ -4441,22 +4439,22 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="102">
+      <c r="A85" s="103">
         <v>1</v>
       </c>
       <c r="B85" s="48">
         <v>3</v>
       </c>
-      <c r="C85" s="102">
+      <c r="C85" s="103">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.8" thickBot="1">
-      <c r="A86" s="103"/>
+      <c r="A86" s="104"/>
       <c r="B86" s="49">
         <v>4</v>
       </c>
-      <c r="C86" s="103"/>
+      <c r="C86" s="104"/>
     </row>
     <row r="87" spans="1:3" ht="16.8" thickBot="1">
       <c r="A87" s="50">

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441FBF49-5947-43B1-9B01-66549ADA122F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8988"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">資料轉換!$A$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="399">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1622,11 +1621,19 @@
 201:利變年金帳冊</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>起帳/銷帳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起帳/銷帳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -2358,9 +2365,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="3"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2517,23 +2524,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2569,23 +2559,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2761,11 +2734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3369,7 +3342,7 @@
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="25" t="s">
-        <v>151</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="40" customFormat="1">
@@ -3391,7 +3364,7 @@
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="25" t="s">
-        <v>151</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3413,7 +3386,7 @@
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="25" t="s">
-        <v>151</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3435,7 +3408,7 @@
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="25" t="s">
-        <v>151</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="40" customFormat="1">
@@ -3565,7 +3538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -3776,7 +3749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3912,7 +3885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4509,7 +4482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -5451,7 +5424,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:Q1"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
